--- a/import.xlsx
+++ b/import.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14406124-A85F-41B0-BC6F-A60BB43CC4EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>msv</t>
   </si>
@@ -65,6 +66,9 @@
     <t>Không</t>
   </si>
   <si>
+    <t>Trần Duy Linh</t>
+  </si>
+  <si>
     <t>0312412421</t>
   </si>
   <si>
@@ -74,6 +78,12 @@
     <t>Thiếu học phí</t>
   </si>
   <si>
+    <t>Trần Xuân Bách</t>
+  </si>
+  <si>
+    <t>0124124719</t>
+  </si>
+  <si>
     <t>Khen thưởng</t>
   </si>
   <si>
@@ -98,6 +108,9 @@
     <t>0389469213</t>
   </si>
   <si>
+    <t>Đan Phượng, Hà Nội</t>
+  </si>
+  <si>
     <t>Bùi Minh Hiếu</t>
   </si>
   <si>
@@ -116,49 +129,34 @@
     <t>0833477854</t>
   </si>
   <si>
-    <t>K65-CA-CLC-4</t>
-  </si>
-  <si>
-    <t>19021248</t>
-  </si>
-  <si>
-    <t>Đỗ Đại Dương</t>
-  </si>
-  <si>
-    <t>0977305864</t>
-  </si>
-  <si>
-    <t>Phương Mai, Đống Đa, Hà Nội</t>
-  </si>
-  <si>
-    <t>Hồng Hà, Đan Phượng, Hà Nội</t>
-  </si>
-  <si>
-    <t>Lê Mạnh Cường</t>
-  </si>
-  <si>
-    <t>Thiếu tín chỉ</t>
-  </si>
-  <si>
-    <t>19021477</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Lan</t>
-  </si>
-  <si>
-    <t>0378446886</t>
-  </si>
-  <si>
-    <t>Mỹ Đình, Nam Từ Liêm, Hà Nội</t>
-  </si>
-  <si>
-    <t>Cảnh báo học vụ</t>
+    <t>K64-CA-CLC-4</t>
+  </si>
+  <si>
+    <t>B22DCCN001</t>
+  </si>
+  <si>
+    <t>B22DCCN002</t>
+  </si>
+  <si>
+    <t>B22DCCN003</t>
+  </si>
+  <si>
+    <t>B22DCCN004</t>
+  </si>
+  <si>
+    <t>B22DCCN005</t>
+  </si>
+  <si>
+    <t>B22DCCN006</t>
+  </si>
+  <si>
+    <t>B22DCCN007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,6 +285,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -322,6 +337,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -497,28 +529,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="12.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="2"/>
-    <col min="9" max="9" width="13.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" customWidth="1"/>
+    <col min="3" max="3" width="23.08984375" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" style="1"/>
+    <col min="5" max="5" width="12.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.08984375" style="2"/>
+    <col min="9" max="9" width="13.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.08984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -550,9 +582,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>19021324</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -579,27 +611,27 @@
         <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>19021320</v>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4">
-        <v>36964</v>
+        <v>37086</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="3">
         <v>78</v>
@@ -608,117 +640,117 @@
         <v>3.1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>19021235</v>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="4">
+        <v>37087</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3">
+        <v>82</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4">
         <v>37088</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3">
-        <v>80</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>19021269</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4">
-        <v>37120</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" t="s">
         <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
       </c>
       <c r="G5" s="3">
         <v>80</v>
       </c>
       <c r="H5" s="2">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>19021275</v>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4">
-        <v>37090</v>
+        <v>37089</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H6" s="2">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>19021306</v>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="4">
-        <v>37091</v>
+        <v>37090</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -727,30 +759,30 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="4">
-        <v>37023</v>
+        <v>37091</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -758,82 +790,50 @@
       <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="3">
+        <v>82</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="G8" s="3">
-        <v>40</v>
-      </c>
-      <c r="H8" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="4">
-        <v>37219</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="3">
-        <v>74</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E2:E3 E4:E5" numberStoredAsText="1"/>
+    <ignoredError sqref="E2:E6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
